--- a/KatarinaWennstam.xlsx
+++ b/KatarinaWennstam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE911EC-1EE1-4D05-A413-BEAA6CBD257C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF2E82B-FB36-49F1-8E29-92AC53443079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5957C07C-84C5-48E0-B8D8-7F236DE2336B}"/>
   </bookViews>
@@ -1365,7 +1365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03044AA-FBFA-4CB1-9DB9-E3DB1894EEAE}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1431,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">

--- a/KatarinaWennstam.xlsx
+++ b/KatarinaWennstam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF2E82B-FB36-49F1-8E29-92AC53443079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BA80AD-A0A8-4380-923C-8714C098E28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5957C07C-84C5-48E0-B8D8-7F236DE2336B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>X</t>
   </si>
@@ -957,9 +957,6 @@
       </rPr>
       <t>ISBN 9789100184469</t>
     </r>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1042,12 +1039,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1366,134 +1365,137 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="69.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="81.1796875" style="1"/>
+    <col min="1" max="1" width="69.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="81.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/KatarinaWennstam.xlsx
+++ b/KatarinaWennstam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BA80AD-A0A8-4380-923C-8714C098E28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F98D671-7133-42C7-B68F-CE5F55E1B802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5957C07C-84C5-48E0-B8D8-7F236DE2336B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>X</t>
   </si>
@@ -910,43 +910,7 @@
         <rFont val="Garamond"/>
         <family val="1"/>
       </rPr>
-      <t>. Justitiaserien ; 11:e delen. [Stockholm]: Albert Bonniers förlag. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0645AD"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>Libris</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF3366BB"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>zcxzwz1gw1ltjcwf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF202122"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>. </t>
+      <t xml:space="preserve">. Justitiaserien ; 11:e delen. </t>
     </r>
     <r>
       <rPr>
@@ -963,7 +927,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,12 +971,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFBA0000"/>
-      <name val="Garamond"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3366BB"/>
       <name val="Garamond"/>
       <family val="1"/>
     </font>
@@ -1364,9 +1322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03044AA-FBFA-4CB1-9DB9-E3DB1894EEAE}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1389,11 +1345,17 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1490,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
